--- a/public/sample_uploads/capital_distributions_no_payments_1.xlsx
+++ b/public/sample_uploads/capital_distributions_no_payments_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6608BA-47D7-4221-9D6E-F37E7FE9446E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AACF82-916E-45FE-A27B-84F148EC66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -239,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -262,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -334,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -362,7 +362,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Fund *</t>
   </si>
@@ -422,6 +422,12 @@
   </si>
   <si>
     <t>Income *</t>
+  </si>
+  <si>
+    <t>Send Notification</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -703,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N191"/>
+  <dimension ref="A1:O191"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -717,18 +723,18 @@
     <col min="4" max="4" width="24.9375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.9375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.8125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.9375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.1875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="7" max="8" width="16.8125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.9375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.1875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -751,28 +757,31 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -795,17 +804,20 @@
         <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -828,11 +840,14 @@
         <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" customFormat="1" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -855,53 +870,56 @@
         <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>10</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N4" s="1"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.35">
@@ -1435,7 +1453,7 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H191" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:I191" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
